--- a/biology/Botanique/Flora_Sinensis/Flora_Sinensis.xlsx
+++ b/biology/Botanique/Flora_Sinensis/Flora_Sinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Flora Sinensis est un traité descriptif, en latin, de sciences naturelles chinoises. Composé par le missionnaire jésuite polonais Michał Boym et illustré par lui-même, il fut publié à Vienne en 1656. Il est un des premiers livres européens d'histoire naturelle de la Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre complet de l’œuvre est : Flora sinensis : fructus floresque humillime porrigens, serenissimo et potentissimo principi, ac domino, domino Leopoldo Ignatio, Hungariae regi florentissimo, &amp;c. : fructus saeculo promittenti Augustissimos. Publié à Vienne, aux presses ‘Matthaeus Rictius’, en 1656. Il est dédié à Léopold Ier, roi de Hongrie dont Boym espère obtenir le soutien pour le dernier empereur Ming de Chine, Zhu Youlang, dont il s’est fait l’avocat en Europe.
 Une première traduction française du texte est faite par Melchisédech Thévenot. Sous le titre Flora Sinensis, ou traité des fleurs, des fruits, des plantes et des animaux particuliers à la Chine elle paraît dans les Relations de divers voyages curieux,..., seconde partie, Paris, Langlois, 1664.
@@ -543,7 +557,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traité est la première description d'un écosystème d’Extrême-Orient publié en Europe. Il y fait déjà allusion aux propriétés médicinales de certaines plantes chinoises, un sujet qui sera développé dans deux autres traités de Boym le Specimen medicinae Sinicae et le Clavis medica..., tous deux publiés (à titre posthume) en 1682. Il semblerait que Boym est le premier à utiliser, dans ce traité, le mot latin flora pour caractériser l’ensemble du monde végétal d’une région particulière. 
 Malgré son titre restrictif, le livre couvre également la faune et de plus inclut certaines espèces de plantes qui ne sont pas particulières à la Chine. Une planche illustre également la Stèle nestorienne découverte en 1625 dont Boym traduisit le texte.
